--- a/data/exel-docs/barcha-ijaralar-tarixi.xlsx
+++ b/data/exel-docs/barcha-ijaralar-tarixi.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -433,60 +433,60 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Umedov Dilshod</v>
+        <v>Toshpo'Latov  Davronbek Sur'atjon o'g'li</v>
       </c>
       <c r="B2" t="str">
-        <v>638f8d03008bc82d3ca29404</v>
+        <v>6389c809666ce69a7f92ffa9</v>
       </c>
       <c r="C2" t="str">
-        <v>N-01593</v>
+        <v>CH-00118</v>
       </c>
       <c r="D2" t="str">
-        <v>E202</v>
+        <v>E-30D</v>
       </c>
       <c r="E2" t="str">
         <v>ECE</v>
       </c>
       <c r="F2" t="str">
-        <v>+998900131313</v>
+        <v xml:space="preserve"> 971103553</v>
       </c>
       <c r="G2" t="str">
-        <v>2022-12-10T09:40:27.853Z</v>
+        <v>2022-12-11T14:46:40.658Z</v>
       </c>
       <c r="H2" t="str">
-        <v>2022-12-17T09:40:27.853Z</v>
+        <v>2022-12-18T14:46:40.658Z</v>
       </c>
       <c r="I2" t="str">
-        <v>2022-12-10T09:43:40.082Z</v>
+        <v>2022-12-11T19:09:23.405Z</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Boynazarov  Bobur  Muzaffar o‘g‘li</v>
+        <v>Umedov Dilshod</v>
       </c>
       <c r="B3" t="str">
-        <v>638f8d03008bc82d3ca29404</v>
+        <v>638f8cb7008bc82d3ca29401</v>
       </c>
       <c r="C3" t="str">
-        <v>N-01595</v>
+        <v>N-01590</v>
       </c>
       <c r="D3" t="str">
-        <v>E-203</v>
+        <v>E202</v>
       </c>
       <c r="E3" t="str">
         <v>ECE</v>
       </c>
       <c r="F3" t="str">
-        <v xml:space="preserve"> 998 99 871-15-29</v>
+        <v>+99891312212</v>
       </c>
       <c r="G3" t="str">
-        <v>2022-12-10T09:42:27.275Z</v>
+        <v>2022-12-06T21:03:48.510Z</v>
       </c>
       <c r="H3" t="str">
-        <v>2022-12-17T09:42:27.275Z</v>
+        <v>2022-12-13T21:03:48.510Z</v>
       </c>
       <c r="I3" t="str">
-        <v>2022-12-10T09:43:31.489Z</v>
+        <v>2022-12-11T14:43:14.322Z</v>
       </c>
     </row>
     <row r="4">
@@ -494,10 +494,10 @@
         <v>Tulaev  Muhammad  Dilshod o‘g‘li</v>
       </c>
       <c r="B4" t="str">
-        <v>638f8d03008bc82d3ca29404</v>
+        <v>638f8d2f008bc82d3ca29407</v>
       </c>
       <c r="C4" t="str">
-        <v>N-01593</v>
+        <v>N-01597</v>
       </c>
       <c r="D4" t="str">
         <v>E-203</v>
@@ -509,42 +509,42 @@
         <v xml:space="preserve"> 998 90 864-20-24</v>
       </c>
       <c r="G4" t="str">
-        <v>2022-12-10T09:34:47.887Z</v>
+        <v>2022-12-10T09:33:35.871Z</v>
       </c>
       <c r="H4" t="str">
-        <v>2022-12-17T09:34:47.887Z</v>
+        <v>2022-12-17T09:33:35.871Z</v>
       </c>
       <c r="I4" t="str">
-        <v>2022-12-10T09:39:08.755Z</v>
+        <v>2022-12-11T09:14:53.020Z</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Turgunboev  Jakhongir  G‘ayrat o‘g‘li</v>
+        <v>Bakhodirova  Rukhsorakhon  Behzod qizi</v>
       </c>
       <c r="B5" t="str">
-        <v>638f8d03008bc82d3ca29404</v>
+        <v>6389c809666ce69a7f92ffa9</v>
       </c>
       <c r="C5" t="str">
-        <v>N-01595</v>
+        <v>CH-00118</v>
       </c>
       <c r="D5" t="str">
-        <v>E-204</v>
+        <v>E-203</v>
       </c>
       <c r="E5" t="str">
         <v>ECE</v>
       </c>
       <c r="F5" t="str">
-        <v xml:space="preserve"> 998 99 409-66-69</v>
+        <v xml:space="preserve"> 998 97 4633882</v>
       </c>
       <c r="G5" t="str">
-        <v>2022-12-10T09:35:19.834Z</v>
+        <v>2022-12-10T09:36:53.998Z</v>
       </c>
       <c r="H5" t="str">
-        <v>2022-12-17T09:35:19.834Z</v>
+        <v>2022-12-17T09:36:53.998Z</v>
       </c>
       <c r="I5" t="str">
-        <v>2022-12-10T09:39:01.587Z</v>
+        <v>2022-12-11T09:13:45.434Z</v>
       </c>
     </row>
     <row r="6">
@@ -567,24 +567,24 @@
         <v xml:space="preserve"> 998 93 656-36-72</v>
       </c>
       <c r="G6" t="str">
-        <v>2022-12-10T09:33:09.941Z</v>
+        <v>2022-12-11T09:10:21.246Z</v>
       </c>
       <c r="H6" t="str">
-        <v>2022-12-17T09:33:09.941Z</v>
+        <v>2022-12-18T09:10:21.246Z</v>
       </c>
       <c r="I6" t="str">
-        <v>2022-12-10T09:34:18.837Z</v>
+        <v>2022-12-11T09:10:52.171Z</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Sodiqov Otabek</v>
+        <v>Umedov Dilshod</v>
       </c>
       <c r="B7" t="str">
-        <v>6389c809666ce69a7f92ffaa</v>
+        <v>638f8d03008bc82d3ca29404</v>
       </c>
       <c r="C7" t="str">
-        <v>CH-00020</v>
+        <v>N-01593</v>
       </c>
       <c r="D7" t="str">
         <v>E202</v>
@@ -593,520 +593,520 @@
         <v>ECE</v>
       </c>
       <c r="F7" t="str">
-        <v>+998900234321</v>
+        <v>+998900131313</v>
       </c>
       <c r="G7" t="str">
-        <v>2022-12-07T06:58:11.530Z</v>
+        <v>2022-12-10T09:40:27.853Z</v>
       </c>
       <c r="H7" t="str">
-        <v>2022-12-14T06:58:11.530Z</v>
+        <v>2022-12-17T09:40:27.853Z</v>
       </c>
       <c r="I7" t="str">
-        <v>2022-12-10T09:27:27.282Z</v>
+        <v>2022-12-10T09:43:40.082Z</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Sodiqov Otabek</v>
+        <v>Boynazarov  Bobur  Muzaffar o‘g‘li</v>
       </c>
       <c r="B8" t="str">
-        <v>6389c809666ce69a7f92ffaa</v>
+        <v>638f8d03008bc82d3ca29404</v>
       </c>
       <c r="C8" t="str">
-        <v>CH-00021</v>
+        <v>N-01595</v>
       </c>
       <c r="D8" t="str">
-        <v>E202</v>
+        <v>E-203</v>
       </c>
       <c r="E8" t="str">
         <v>ECE</v>
       </c>
       <c r="F8" t="str">
-        <v>+998900010101</v>
+        <v xml:space="preserve"> 998 99 871-15-29</v>
       </c>
       <c r="G8" t="str">
-        <v>2022-12-07T06:59:14.163Z</v>
+        <v>2022-12-10T09:42:27.275Z</v>
       </c>
       <c r="H8" t="str">
-        <v>2022-12-14T06:59:14.163Z</v>
+        <v>2022-12-17T09:42:27.275Z</v>
       </c>
       <c r="I8" t="str">
-        <v>2022-12-10T09:25:50.642Z</v>
+        <v>2022-12-10T09:43:31.489Z</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Azizov  Shomakhmud  Shoakbar o‘g‘li</v>
+        <v>Tulaev  Muhammad  Dilshod o‘g‘li</v>
       </c>
       <c r="B9" t="str">
-        <v>6389c809666ce69a7f92ffa9</v>
+        <v>638f8d03008bc82d3ca29404</v>
       </c>
       <c r="C9" t="str">
-        <v>CH-00117</v>
+        <v>N-01593</v>
       </c>
       <c r="D9" t="str">
-        <v>E-201</v>
+        <v>E-203</v>
       </c>
       <c r="E9" t="str">
         <v>ECE</v>
       </c>
       <c r="F9" t="str">
-        <v xml:space="preserve"> 998 99 812-21-30</v>
+        <v xml:space="preserve"> 998 90 864-20-24</v>
       </c>
       <c r="G9" t="str">
-        <v>2022-12-10T08:47:30.674Z</v>
+        <v>2022-12-10T09:34:47.887Z</v>
       </c>
       <c r="H9" t="str">
-        <v>2022-12-17T08:47:30.674Z</v>
+        <v>2022-12-17T09:34:47.887Z</v>
       </c>
       <c r="I9" t="str">
-        <v>2022-12-10T08:48:26.578Z</v>
+        <v>2022-12-10T09:39:08.755Z</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>ULUG'BEK</v>
+        <v>Turgunboev  Jakhongir  G‘ayrat o‘g‘li</v>
       </c>
       <c r="B10" t="str">
-        <v>6389c809666ce69a7f92ffa9</v>
+        <v>638f8d03008bc82d3ca29404</v>
       </c>
       <c r="C10" t="str">
-        <v>CH-00115</v>
+        <v>N-01595</v>
       </c>
       <c r="D10" t="str">
-        <v>201</v>
+        <v>E-204</v>
       </c>
       <c r="E10" t="str">
-        <v>Civil</v>
+        <v>ECE</v>
       </c>
       <c r="F10" t="str">
-        <v>+998945414635</v>
+        <v xml:space="preserve"> 998 99 409-66-69</v>
       </c>
       <c r="G10" t="str">
-        <v>2022-12-10T08:39:05.822Z</v>
+        <v>2022-12-10T09:35:19.834Z</v>
       </c>
       <c r="H10" t="str">
-        <v>2022-12-17T08:39:05.822Z</v>
+        <v>2022-12-17T09:35:19.834Z</v>
       </c>
       <c r="I10" t="str">
-        <v>2022-12-10T08:46:41.938Z</v>
+        <v>2022-12-10T09:39:01.587Z</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>BAKHTIYOROVA ODINAKHON BAXODIROVNA</v>
+        <v>Temirov  Ulugbek  Axtam o‘g‘li</v>
       </c>
       <c r="B11" t="str">
         <v>638f8d03008bc82d3ca29404</v>
       </c>
       <c r="C11" t="str">
-        <v>N-01593</v>
+        <v>N-01595</v>
       </c>
       <c r="D11" t="str">
-        <v>E-102</v>
+        <v>E-202</v>
       </c>
       <c r="E11" t="str">
         <v>ECE</v>
       </c>
       <c r="F11" t="str">
-        <v xml:space="preserve"> +99890 946 26 70</v>
+        <v xml:space="preserve"> 998 93 656-36-72</v>
       </c>
       <c r="G11" t="str">
-        <v>2022-12-08T16:20:40.341Z</v>
+        <v>2022-12-10T09:33:09.941Z</v>
       </c>
       <c r="H11" t="str">
-        <v>2022-12-15T16:20:40.341Z</v>
+        <v>2022-12-17T09:33:09.941Z</v>
       </c>
       <c r="I11" t="str">
-        <v>2022-12-09T17:37:04.767Z</v>
+        <v>2022-12-10T09:34:18.837Z</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>BAKHTIYOROVA ODINAKHON BAXODIROVNA</v>
+        <v>Sodiqov Otabek</v>
       </c>
       <c r="B12" t="str">
-        <v>638f8d03008bc82d3ca29404</v>
+        <v>6389c809666ce69a7f92ffaa</v>
       </c>
       <c r="C12" t="str">
-        <v>N-01595</v>
+        <v>CH-00020</v>
       </c>
       <c r="D12" t="str">
-        <v>E-102</v>
+        <v>E202</v>
       </c>
       <c r="E12" t="str">
         <v>ECE</v>
       </c>
       <c r="F12" t="str">
-        <v xml:space="preserve"> +99890 946 26 70</v>
+        <v>+998900234321</v>
       </c>
       <c r="G12" t="str">
-        <v>2022-12-08T16:32:28.954Z</v>
+        <v>2022-12-07T06:58:11.530Z</v>
       </c>
       <c r="H12" t="str">
-        <v>2022-12-15T16:32:28.954Z</v>
+        <v>2022-12-14T06:58:11.530Z</v>
       </c>
       <c r="I12" t="str">
-        <v>2022-12-09T17:36:57.851Z</v>
+        <v>2022-12-10T09:27:27.282Z</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>AVLIYOKULOV MUKHAMMADALI BAYRAM OGLI</v>
+        <v>Sodiqov Otabek</v>
       </c>
       <c r="B13" t="str">
-        <v>638f8d03008bc82d3ca29404</v>
+        <v>6389c809666ce69a7f92ffaa</v>
       </c>
       <c r="C13" t="str">
-        <v>N-01594</v>
+        <v>CH-00021</v>
       </c>
       <c r="D13" t="str">
-        <v>E-101</v>
+        <v>E202</v>
       </c>
       <c r="E13" t="str">
         <v>ECE</v>
       </c>
       <c r="F13" t="str">
-        <v xml:space="preserve"> +99893 006 42 26</v>
+        <v>+998900010101</v>
       </c>
       <c r="G13" t="str">
-        <v>2022-12-08T18:52:14.379Z</v>
+        <v>2022-12-07T06:59:14.163Z</v>
       </c>
       <c r="H13" t="str">
-        <v>2022-12-15T18:52:14.379Z</v>
+        <v>2022-12-14T06:59:14.163Z</v>
       </c>
       <c r="I13" t="str">
-        <v>2022-12-09T17:22:40.564Z</v>
+        <v>2022-12-10T09:25:50.642Z</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>AVLIYOKULOV MUKHAMMADALI BAYRAM OGLI</v>
+        <v>Azizov  Shomakhmud  Shoakbar o‘g‘li</v>
       </c>
       <c r="B14" t="str">
-        <v>638f8ba7008bc82d3ca293f9</v>
+        <v>6389c809666ce69a7f92ffa9</v>
       </c>
       <c r="C14" t="str">
-        <v>N-01584</v>
+        <v>CH-00117</v>
       </c>
       <c r="D14" t="str">
-        <v>E-101</v>
+        <v>E-201</v>
       </c>
       <c r="E14" t="str">
         <v>ECE</v>
       </c>
       <c r="F14" t="str">
-        <v xml:space="preserve"> +99893 006 42 26</v>
+        <v xml:space="preserve"> 998 99 812-21-30</v>
       </c>
       <c r="G14" t="str">
-        <v>2022-12-09T05:59:36.571Z</v>
+        <v>2022-12-10T08:47:30.674Z</v>
       </c>
       <c r="H14" t="str">
-        <v>2022-12-16T05:59:36.571Z</v>
+        <v>2022-12-17T08:47:30.674Z</v>
       </c>
       <c r="I14" t="str">
-        <v>2022-12-09T05:59:58.534Z</v>
+        <v>2022-12-10T08:48:26.578Z</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Adizov No'mon</v>
+        <v>ULUG'BEK</v>
       </c>
       <c r="B15" t="str">
-        <v>6389c809666ce69a7f92ffac</v>
+        <v>6389c809666ce69a7f92ffa9</v>
       </c>
       <c r="C15" t="str">
-        <v>CH-00093</v>
+        <v>CH-00115</v>
       </c>
       <c r="D15" t="str">
-        <v>E201</v>
+        <v>201</v>
       </c>
       <c r="E15" t="str">
-        <v>ECE</v>
+        <v>Civil</v>
       </c>
       <c r="F15" t="str">
-        <v>+998900011112</v>
+        <v>+998945414635</v>
       </c>
       <c r="G15" t="str">
-        <v>2022-12-07T06:52:04.466Z</v>
+        <v>2022-12-10T08:39:05.822Z</v>
       </c>
       <c r="H15" t="str">
-        <v>2022-12-14T06:52:04.466Z</v>
+        <v>2022-12-17T08:39:05.822Z</v>
       </c>
       <c r="I15" t="str">
-        <v>2022-12-08T18:49:17.430Z</v>
+        <v>2022-12-10T08:46:41.938Z</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Olimjonov Samandar</v>
+        <v>BAKHTIYOROVA ODINAKHON BAXODIROVNA</v>
       </c>
       <c r="B16" t="str">
-        <v>638e0cbe12745de7711e2344</v>
+        <v>638f8d03008bc82d3ca29404</v>
       </c>
       <c r="C16" t="str">
-        <v>F-00014</v>
+        <v>N-01593</v>
       </c>
       <c r="D16" t="str">
-        <v>E202</v>
+        <v>E-102</v>
       </c>
       <c r="E16" t="str">
-        <v>Civil</v>
+        <v>ECE</v>
       </c>
       <c r="F16" t="str">
-        <v>+998900121212</v>
+        <v xml:space="preserve"> +99890 946 26 70</v>
       </c>
       <c r="G16" t="str">
-        <v>2022-12-06T11:20:39.300Z</v>
+        <v>2022-12-08T16:20:40.341Z</v>
       </c>
       <c r="H16" t="str">
-        <v>2022-12-13T11:20:39.300Z</v>
+        <v>2022-12-15T16:20:40.341Z</v>
       </c>
       <c r="I16" t="str">
-        <v>2022-12-07T18:33:14.029Z</v>
+        <v>2022-12-09T17:37:04.767Z</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Mahmudov Muhammadjon</v>
+        <v>BAKHTIYOROVA ODINAKHON BAXODIROVNA</v>
       </c>
       <c r="B17" t="str">
-        <v>638e0cbe12745de7711e2344</v>
+        <v>638f8d03008bc82d3ca29404</v>
       </c>
       <c r="C17" t="str">
-        <v>F-00015</v>
+        <v>N-01595</v>
       </c>
       <c r="D17" t="str">
-        <v>C204</v>
+        <v>E-102</v>
       </c>
       <c r="E17" t="str">
-        <v>Civil</v>
+        <v>ECE</v>
       </c>
       <c r="F17" t="str">
-        <v>+998900011213</v>
+        <v xml:space="preserve"> +99890 946 26 70</v>
       </c>
       <c r="G17" t="str">
-        <v>2022-12-06T11:36:23.222Z</v>
+        <v>2022-12-08T16:32:28.954Z</v>
       </c>
       <c r="H17" t="str">
-        <v>2022-12-13T11:36:23.222Z</v>
+        <v>2022-12-15T16:32:28.954Z</v>
       </c>
       <c r="I17" t="str">
-        <v>2022-12-07T18:33:08.705Z</v>
+        <v>2022-12-09T17:36:57.851Z</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Rabbonayev Behruz</v>
+        <v>AVLIYOKULOV MUKHAMMADALI BAYRAM OGLI</v>
       </c>
       <c r="B18" t="str">
-        <v>638f8cb7008bc82d3ca29401</v>
+        <v>638f8d03008bc82d3ca29404</v>
       </c>
       <c r="C18" t="str">
-        <v>N-01591</v>
+        <v>N-01594</v>
       </c>
       <c r="D18" t="str">
-        <v>E204</v>
+        <v>E-101</v>
       </c>
       <c r="E18" t="str">
         <v>ECE</v>
       </c>
       <c r="F18" t="str">
-        <v>+998901234567</v>
+        <v xml:space="preserve"> +99893 006 42 26</v>
       </c>
       <c r="G18" t="str">
-        <v>2022-12-07T09:09:11.864Z</v>
+        <v>2022-12-08T18:52:14.379Z</v>
       </c>
       <c r="H18" t="str">
-        <v>2022-12-14T09:09:11.864Z</v>
+        <v>2022-12-15T18:52:14.379Z</v>
       </c>
       <c r="I18" t="str">
-        <v>2022-12-07T13:34:49.831Z</v>
+        <v>2022-12-09T17:22:40.564Z</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>John Doe</v>
+        <v>AVLIYOKULOV MUKHAMMADALI BAYRAM OGLI</v>
       </c>
       <c r="B19" t="str">
-        <v>6389c809666ce69a7f92ffaa</v>
+        <v>638f8ba7008bc82d3ca293f9</v>
       </c>
       <c r="C19" t="str">
-        <v>CH-00019</v>
+        <v>N-01584</v>
       </c>
       <c r="D19" t="str">
-        <v>E206</v>
+        <v>E-101</v>
       </c>
       <c r="E19" t="str">
-        <v>Architecture</v>
+        <v>ECE</v>
       </c>
       <c r="F19" t="str">
-        <v>+998900033131</v>
+        <v xml:space="preserve"> +99893 006 42 26</v>
       </c>
       <c r="G19" t="str">
-        <v>2022-12-06T11:37:09.507Z</v>
+        <v>2022-12-09T05:59:36.571Z</v>
       </c>
       <c r="H19" t="str">
-        <v>2022-12-13T11:37:09.507Z</v>
+        <v>2022-12-16T05:59:36.571Z</v>
       </c>
       <c r="I19" t="str">
-        <v>2022-12-06T12:16:12.517Z</v>
+        <v>2022-12-09T05:59:58.534Z</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Umedov Dilshod</v>
+        <v>Adizov No'mon</v>
       </c>
       <c r="B20" t="str">
-        <v>6389c809666ce69a7f92ffaa</v>
+        <v>6389c809666ce69a7f92ffac</v>
       </c>
       <c r="C20" t="str">
-        <v>CH-00016</v>
+        <v>CH-00093</v>
       </c>
       <c r="D20" t="str">
-        <v>E202</v>
+        <v>E201</v>
       </c>
       <c r="E20" t="str">
         <v>ECE</v>
       </c>
       <c r="F20" t="str">
-        <v>+998900463672</v>
+        <v>+998900011112</v>
       </c>
       <c r="G20" t="str">
-        <v>2022-12-06T10:45:34.547Z</v>
+        <v>2022-12-07T06:52:04.466Z</v>
       </c>
       <c r="H20" t="str">
-        <v>2022-12-13T10:45:34.547Z</v>
+        <v>2022-12-14T06:52:04.466Z</v>
       </c>
       <c r="I20" t="str">
-        <v>2022-12-06T11:10:52.342Z</v>
+        <v>2022-12-08T18:49:17.430Z</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Temirov Ulugbek</v>
+        <v>Olimjonov Samandar</v>
       </c>
       <c r="B21" t="str">
-        <v>638e0c0812745de7711e233a</v>
+        <v>638e0cbe12745de7711e2344</v>
       </c>
       <c r="C21" t="str">
-        <v>CH-01684</v>
+        <v>F-00014</v>
       </c>
       <c r="D21" t="str">
         <v>E202</v>
       </c>
       <c r="E21" t="str">
-        <v>ECE</v>
+        <v>Civil</v>
       </c>
       <c r="F21" t="str">
-        <v>+998936563672</v>
+        <v>+998900121212</v>
       </c>
       <c r="G21" t="str">
-        <v>2022-12-06T10:43:49.300Z</v>
+        <v>2022-12-06T11:20:39.300Z</v>
       </c>
       <c r="H21" t="str">
-        <v>2022-12-13T10:43:49.300Z</v>
+        <v>2022-12-13T11:20:39.300Z</v>
       </c>
       <c r="I21" t="str">
-        <v>2022-12-06T10:44:10.333Z</v>
+        <v>2022-12-07T18:33:14.029Z</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Haydarbek Eshonqulov</v>
+        <v>Mahmudov Muhammadjon</v>
       </c>
       <c r="B22" t="str">
-        <v>638e0c0812745de7711e233a</v>
+        <v>638e0cbe12745de7711e2344</v>
       </c>
       <c r="C22" t="str">
-        <v>M-00014</v>
+        <v>F-00015</v>
       </c>
       <c r="D22" t="str">
-        <v>A202</v>
+        <v>C204</v>
       </c>
       <c r="E22" t="str">
-        <v>Architecture</v>
+        <v>Civil</v>
       </c>
       <c r="F22" t="str">
-        <v>+998999999999</v>
+        <v>+998900011213</v>
       </c>
       <c r="G22" t="str">
-        <v>2022-12-05T19:14:13.323Z</v>
+        <v>2022-12-06T11:36:23.222Z</v>
       </c>
       <c r="H22" t="str">
-        <v>2022-12-12T19:14:13.323Z</v>
+        <v>2022-12-13T11:36:23.222Z</v>
       </c>
       <c r="I22" t="str">
-        <v>2022-12-05T19:14:29.911Z</v>
+        <v>2022-12-07T18:33:08.705Z</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Umedov Dilshod</v>
+        <v>Rabbonayev Behruz</v>
       </c>
       <c r="B23" t="str">
-        <v>638e0cbe12745de7711e2344</v>
+        <v>638f8cb7008bc82d3ca29401</v>
       </c>
       <c r="C23" t="str">
-        <v>F-00013</v>
+        <v>N-01591</v>
       </c>
       <c r="D23" t="str">
-        <v>E202</v>
+        <v>E204</v>
       </c>
       <c r="E23" t="str">
         <v>ECE</v>
       </c>
       <c r="F23" t="str">
-        <v>+998900463672</v>
+        <v>+998901234567</v>
       </c>
       <c r="G23" t="str">
-        <v>2022-12-05T15:23:45.469Z</v>
+        <v>2022-12-07T09:09:11.864Z</v>
       </c>
       <c r="H23" t="str">
-        <v>2022-12-12T15:23:45.469Z</v>
+        <v>2022-12-14T09:09:11.864Z</v>
       </c>
       <c r="I23" t="str">
-        <v>2022-12-05T19:10:24.980Z</v>
+        <v>2022-12-07T13:34:49.831Z</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Hamroyev Alibek</v>
+        <v>John Doe</v>
       </c>
       <c r="B24" t="str">
-        <v>638e0c0812745de7711e233a</v>
+        <v>6389c809666ce69a7f92ffaa</v>
       </c>
       <c r="C24" t="str">
-        <v>M-00013</v>
+        <v>CH-00019</v>
       </c>
       <c r="D24" t="str">
-        <v>A206</v>
+        <v>E206</v>
       </c>
       <c r="E24" t="str">
         <v>Architecture</v>
       </c>
       <c r="F24" t="str">
-        <v>+998913214080</v>
+        <v>+998900033131</v>
       </c>
       <c r="G24" t="str">
-        <v>2022-12-05T18:18:55.397Z</v>
+        <v>2022-12-06T11:37:09.507Z</v>
       </c>
       <c r="H24" t="str">
-        <v>2022-12-12T18:18:55.397Z</v>
+        <v>2022-12-13T11:37:09.507Z</v>
       </c>
       <c r="I24" t="str">
-        <v>2022-12-05T19:10:11.462Z</v>
+        <v>2022-12-06T12:16:12.517Z</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Jo'rayev Narimon</v>
+        <v>Umedov Dilshod</v>
       </c>
       <c r="B25" t="str">
-        <v>6389c809666ce69a7f92ffac</v>
+        <v>6389c809666ce69a7f92ffaa</v>
       </c>
       <c r="C25" t="str">
-        <v>CH-00091</v>
+        <v>CH-00016</v>
       </c>
       <c r="D25" t="str">
         <v>E202</v>
@@ -1115,108 +1115,253 @@
         <v>ECE</v>
       </c>
       <c r="F25" t="str">
-        <v>+998911234567</v>
+        <v>+998900463672</v>
       </c>
       <c r="G25" t="str">
-        <v>2022-12-05T19:09:49.122Z</v>
+        <v>2022-12-06T10:45:34.547Z</v>
       </c>
       <c r="H25" t="str">
-        <v>2022-12-12T19:09:49.122Z</v>
+        <v>2022-12-13T10:45:34.547Z</v>
       </c>
       <c r="I25" t="str">
-        <v>2022-12-05T19:10:01.222Z</v>
+        <v>2022-12-06T11:10:52.342Z</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Izzat Makhmudkhodzaev</v>
+        <v>Temirov Ulugbek</v>
       </c>
       <c r="B26" t="str">
-        <v>6389c809666ce69a7f92ffaa</v>
+        <v>638e0c0812745de7711e233a</v>
       </c>
       <c r="C26" t="str">
-        <v>CH-00018</v>
+        <v>CH-01684</v>
       </c>
       <c r="D26" t="str">
-        <v>E-201</v>
+        <v>E202</v>
       </c>
       <c r="E26" t="str">
         <v>ECE</v>
       </c>
       <c r="F26" t="str">
-        <v>+998977622003</v>
+        <v>+998936563672</v>
       </c>
       <c r="G26" t="str">
-        <v>2022-12-05T15:08:27.969Z</v>
+        <v>2022-12-06T10:43:49.300Z</v>
       </c>
       <c r="H26" t="str">
-        <v>2022-12-12T15:08:27.969Z</v>
+        <v>2022-12-13T10:43:49.300Z</v>
       </c>
       <c r="I26" t="str">
-        <v>2022-12-05T19:09:21.189Z</v>
+        <v>2022-12-06T10:44:10.333Z</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Abror Ahmedov</v>
+        <v>Haydarbek Eshonqulov</v>
       </c>
       <c r="B27" t="str">
-        <v>6389c809666ce69a7f92ffab</v>
+        <v>638e0c0812745de7711e233a</v>
       </c>
       <c r="C27" t="str">
-        <v>CH-00035</v>
+        <v>M-00014</v>
       </c>
       <c r="D27" t="str">
-        <v>A-203</v>
+        <v>A202</v>
       </c>
       <c r="E27" t="str">
         <v>Architecture</v>
       </c>
       <c r="F27" t="str">
-        <v>+998931656779</v>
+        <v>+998999999999</v>
       </c>
       <c r="G27" t="str">
-        <v>2022-12-05T15:08:27.971Z</v>
+        <v>2022-12-05T19:14:13.323Z</v>
       </c>
       <c r="H27" t="str">
-        <v>2022-12-12T15:08:27.971Z</v>
+        <v>2022-12-12T19:14:13.323Z</v>
       </c>
       <c r="I27" t="str">
-        <v>2022-12-05T19:09:02.667Z</v>
+        <v>2022-12-05T19:14:29.911Z</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
+        <v>Umedov Dilshod</v>
+      </c>
+      <c r="B28" t="str">
+        <v>638e0cbe12745de7711e2344</v>
+      </c>
+      <c r="C28" t="str">
+        <v>F-00013</v>
+      </c>
+      <c r="D28" t="str">
+        <v>E202</v>
+      </c>
+      <c r="E28" t="str">
+        <v>ECE</v>
+      </c>
+      <c r="F28" t="str">
+        <v>+998900463672</v>
+      </c>
+      <c r="G28" t="str">
+        <v>2022-12-05T15:23:45.469Z</v>
+      </c>
+      <c r="H28" t="str">
+        <v>2022-12-12T15:23:45.469Z</v>
+      </c>
+      <c r="I28" t="str">
+        <v>2022-12-05T19:10:24.980Z</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Hamroyev Alibek</v>
+      </c>
+      <c r="B29" t="str">
+        <v>638e0c0812745de7711e233a</v>
+      </c>
+      <c r="C29" t="str">
+        <v>M-00013</v>
+      </c>
+      <c r="D29" t="str">
+        <v>A206</v>
+      </c>
+      <c r="E29" t="str">
+        <v>Architecture</v>
+      </c>
+      <c r="F29" t="str">
+        <v>+998913214080</v>
+      </c>
+      <c r="G29" t="str">
+        <v>2022-12-05T18:18:55.397Z</v>
+      </c>
+      <c r="H29" t="str">
+        <v>2022-12-12T18:18:55.397Z</v>
+      </c>
+      <c r="I29" t="str">
+        <v>2022-12-05T19:10:11.462Z</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Jo'rayev Narimon</v>
+      </c>
+      <c r="B30" t="str">
+        <v>6389c809666ce69a7f92ffac</v>
+      </c>
+      <c r="C30" t="str">
+        <v>CH-00091</v>
+      </c>
+      <c r="D30" t="str">
+        <v>E202</v>
+      </c>
+      <c r="E30" t="str">
+        <v>ECE</v>
+      </c>
+      <c r="F30" t="str">
+        <v>+998911234567</v>
+      </c>
+      <c r="G30" t="str">
+        <v>2022-12-05T19:09:49.122Z</v>
+      </c>
+      <c r="H30" t="str">
+        <v>2022-12-12T19:09:49.122Z</v>
+      </c>
+      <c r="I30" t="str">
+        <v>2022-12-05T19:10:01.222Z</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Izzat Makhmudkhodzaev</v>
+      </c>
+      <c r="B31" t="str">
+        <v>6389c809666ce69a7f92ffaa</v>
+      </c>
+      <c r="C31" t="str">
+        <v>CH-00018</v>
+      </c>
+      <c r="D31" t="str">
+        <v>E-201</v>
+      </c>
+      <c r="E31" t="str">
+        <v>ECE</v>
+      </c>
+      <c r="F31" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="G31" t="str">
+        <v>2022-12-05T15:08:27.969Z</v>
+      </c>
+      <c r="H31" t="str">
+        <v>2022-12-12T15:08:27.969Z</v>
+      </c>
+      <c r="I31" t="str">
+        <v>2022-12-05T19:09:21.189Z</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>Abror Ahmedov</v>
+      </c>
+      <c r="B32" t="str">
+        <v>6389c809666ce69a7f92ffab</v>
+      </c>
+      <c r="C32" t="str">
+        <v>CH-00035</v>
+      </c>
+      <c r="D32" t="str">
+        <v>A-203</v>
+      </c>
+      <c r="E32" t="str">
+        <v>Architecture</v>
+      </c>
+      <c r="F32" t="str">
+        <v>+998931656779</v>
+      </c>
+      <c r="G32" t="str">
+        <v>2022-12-05T15:08:27.971Z</v>
+      </c>
+      <c r="H32" t="str">
+        <v>2022-12-12T15:08:27.971Z</v>
+      </c>
+      <c r="I32" t="str">
+        <v>2022-12-05T19:09:02.667Z</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
         <v>Jamshid Toshov</v>
       </c>
-      <c r="B28" t="str">
+      <c r="B33" t="str">
         <v>6389c809666ce69a7f92ffa9</v>
       </c>
-      <c r="C28" t="str">
+      <c r="C33" t="str">
         <v>CH-00116</v>
       </c>
-      <c r="D28" t="str">
+      <c r="D33" t="str">
         <v>C-203</v>
       </c>
-      <c r="E28" t="str">
+      <c r="E33" t="str">
         <v>Civil</v>
       </c>
-      <c r="F28" t="str">
+      <c r="F33" t="str">
         <v>+998945414635</v>
       </c>
-      <c r="G28" t="str">
+      <c r="G33" t="str">
         <v>2022-12-05T15:08:27.967Z</v>
       </c>
-      <c r="H28" t="str">
+      <c r="H33" t="str">
         <v>2022-12-12T15:08:27.967Z</v>
       </c>
-      <c r="I28" t="str">
+      <c r="I33" t="str">
         <v>2022-12-05T18:19:16.275Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I28"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I33"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/exel-docs/barcha-ijaralar-tarixi.xlsx
+++ b/data/exel-docs/barcha-ijaralar-tarixi.xlsx
@@ -397,72 +397,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>studentName</v>
-      </c>
-      <c r="B1" t="str">
-        <v>orderedBook</v>
-      </c>
-      <c r="C1" t="str">
-        <v>orderedBookSeria</v>
-      </c>
-      <c r="D1" t="str">
-        <v>classOfStudent</v>
-      </c>
-      <c r="E1" t="str">
-        <v>major</v>
-      </c>
-      <c r="F1" t="str">
-        <v>studentPhoneNumber</v>
-      </c>
-      <c r="G1" t="str">
-        <v>orderedTime</v>
-      </c>
-      <c r="H1" t="str">
-        <v>deadline</v>
-      </c>
-      <c r="I1" t="str">
-        <v>deletedAt</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Akhmedov  Abror  Botir o‘g‘li</v>
-      </c>
-      <c r="B2" t="str">
-        <v>6389c809666ce69a7f92ffac</v>
-      </c>
-      <c r="C2" t="str">
-        <v>CH-00092</v>
-      </c>
-      <c r="D2" t="str">
-        <v>E-201</v>
-      </c>
-      <c r="E2" t="str">
-        <v>ECE</v>
-      </c>
-      <c r="F2" t="str">
-        <v xml:space="preserve"> 998 93 608-38-71</v>
-      </c>
-      <c r="G2" t="str">
-        <v>2022-12-15T05:09:49.654Z</v>
-      </c>
-      <c r="H2" t="str">
-        <v>2022-12-22T05:09:49.654Z</v>
-      </c>
-      <c r="I2" t="str">
-        <v>2022-12-15T05:10:02.141Z</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1"/>
   </ignoredErrors>
 </worksheet>
 </file>